--- a/data/pubsheet.xlsx
+++ b/data/pubsheet.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Pub-Xel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a./Documents/GitHub/Pub-Xel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873408FB-F5AB-4FEA-B3E1-0C6653DC5350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8995D-B6A8-934C-9A65-721D5E2CE62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1695" windowWidth="25605" windowHeight="19905" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
+    <workbookView xWindow="14820" yWindow="3480" windowWidth="25600" windowHeight="19900" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,11 +72,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -82,14 +84,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -98,13 +100,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -118,7 +120,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -162,9 +164,427 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -419,8 +839,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="표 스타일 1" pivot="0" count="2" xr9:uid="{1BF3CAA7-2533-4AA3-BBE7-88CD9087548B}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -435,23 +855,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{514C3299-9BCA-42E3-AD36-806BBD6BF883}" name="표1_67" displayName="표1_67" ref="A1:G36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{514C3299-9BCA-42E3-AD36-806BBD6BF883}" name="표1_67" displayName="표1_67" ref="A1:G36" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:G36" xr:uid="{54BB4DA3-0F9F-4898-8262-A437C696FA64}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9013FCC0-F414-467F-9423-DF3E96354CBB}" name="Ref" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{160D3DAB-F9FF-4AA4-A113-35E06CC898F4}" name="AuthorYear" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BA3630F3-3DEB-4983-974C-9E7C4BF670A5}" name="Journal" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{D7BFAF17-71E4-47A3-813F-0FE6E1C37FD7}" name="IF2023" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{6D5228AC-5680-43E7-B2A9-5BF630E5F6E8}" name="Title" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{849F769E-4259-4D3F-9238-52AD7392C2A6}" name="Abstract" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{71A6D77E-ADB5-4C6A-BD42-EF2C679AD012}" name="Citation2023" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9013FCC0-F414-467F-9423-DF3E96354CBB}" name="Ref" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{160D3DAB-F9FF-4AA4-A113-35E06CC898F4}" name="AuthorYear" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{BA3630F3-3DEB-4983-974C-9E7C4BF670A5}" name="Journal" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{D7BFAF17-71E4-47A3-813F-0FE6E1C37FD7}" name="IF2023" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{6D5228AC-5680-43E7-B2A9-5BF630E5F6E8}" name="Title" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{849F769E-4259-4D3F-9238-52AD7392C2A6}" name="Abstract" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{71A6D77E-ADB5-4C6A-BD42-EF2C679AD012}" name="Citation2023" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A102ADDE-1C71-FE47-AD77-0105E9D48CC2}" name="표1_673" displayName="표1_673" ref="A1:G36" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G36" xr:uid="{54BB4DA3-0F9F-4898-8262-A437C696FA64}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9A1A1C6A-F519-904C-A954-0116740ECC09}" name="Ref" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4361D662-9BBF-534A-AEFC-CE4A9C5DB118}" name="AuthorYear" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{DD97E058-DA83-8644-9A11-15F6C1310C6F}" name="Journal" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{21785E90-442E-7B46-BBC0-8C48B0F9C151}" name="IF2023" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{26BD66C8-1693-0642-B954-800ED69F754F}" name="Title" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{6EEB1FB2-5562-1B48-89B4-F8F3B8C3AD98}" name="Abstract" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{0C13138F-0C69-C14C-AF1F-DE70D8148AA9}" name="Citation2023" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{478F3EF7-55A6-CF4B-BDDB-9213FFD85785}" name="표1_674" displayName="표1_674" ref="A1:G36" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G36" xr:uid="{54BB4DA3-0F9F-4898-8262-A437C696FA64}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B6A7E1E4-2BB0-5640-A94C-5A7DFD789332}" name="Ref" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0C89C111-DE63-F946-AEC1-12AAF1264367}" name="AuthorYear" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{84C1746F-54E6-BC4F-ACFF-C88817F48AC8}" name="Journal" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{CB5F55F8-728D-E04A-8858-FFD5E90821FF}" name="IF2023" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{81FEF075-2847-734E-9149-3F927881C352}" name="Title" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B96BA9C0-89E0-2D41-BC27-F3CEAE79F6F6}" name="Abstract" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{50D45EA8-D872-FD42-9EC4-7DECF0D3731B}" name="Citation2023" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,18 +1225,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="54.875" customWidth="1"/>
+    <col min="5" max="5" width="54.83203125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -816,7 +1268,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -825,7 +1277,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -834,7 +1286,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -843,7 +1295,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -852,7 +1304,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -861,7 +1313,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -870,7 +1322,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -879,7 +1331,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -888,7 +1340,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -897,7 +1349,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -906,7 +1358,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -915,7 +1367,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -924,7 +1376,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -933,7 +1385,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -942,7 +1394,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -951,7 +1403,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -960,7 +1412,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -969,7 +1421,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -978,7 +1430,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -987,7 +1439,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -996,7 +1448,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1005,7 +1457,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1014,7 +1466,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1023,7 +1475,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1032,7 +1484,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1041,7 +1493,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1050,7 +1502,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1059,7 +1511,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1068,7 +1520,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1077,7 +1529,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1086,7 +1538,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1095,7 +1547,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1104,7 +1556,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1113,7 +1565,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1130,4 +1582,736 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FDCD6-9A00-FA49-A432-C32C2DEAB3F5}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="54.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="17">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E8823-310F-664D-AD7B-F12E337F61DA}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="54.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="17">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/pubsheet.xlsx
+++ b/data/pubsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a./Documents/GitHub/Pub-Xel/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Pub-Xel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8995D-B6A8-934C-9A65-721D5E2CE62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A7AB95-249A-4AEA-AEBA-2CC036DC5CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="3480" windowWidth="25600" windowHeight="19900" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B847B8A5-BA10-4A57-B99B-662F264657D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,16 +67,24 @@
     <t>Citation2023</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>IF2024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -84,14 +92,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -100,13 +108,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -120,7 +128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -164,7 +172,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
     <dxf>
@@ -861,10 +869,10 @@
     <tableColumn id="1" xr3:uid="{9013FCC0-F414-467F-9423-DF3E96354CBB}" name="Ref" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{160D3DAB-F9FF-4AA4-A113-35E06CC898F4}" name="AuthorYear" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{BA3630F3-3DEB-4983-974C-9E7C4BF670A5}" name="Journal" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{D7BFAF17-71E4-47A3-813F-0FE6E1C37FD7}" name="IF2023" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{D7BFAF17-71E4-47A3-813F-0FE6E1C37FD7}" name="IF2024" dataDxfId="21"/>
     <tableColumn id="8" xr3:uid="{6D5228AC-5680-43E7-B2A9-5BF630E5F6E8}" name="Title" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{849F769E-4259-4D3F-9238-52AD7392C2A6}" name="Abstract" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{71A6D77E-ADB5-4C6A-BD42-EF2C679AD012}" name="Citation2023" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{71A6D77E-ADB5-4C6A-BD42-EF2C679AD012}" name="Citation" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -903,7 +911,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1221,22 +1229,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49A848-A24F-40DC-A73B-1E35FD1FE2FA}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1875" customWidth="1"/>
+    <col min="3" max="3" width="9.3125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="54.83203125" customWidth="1"/>
+    <col min="5" max="5" width="54.8125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FDCD6-9A00-FA49-A432-C32C2DEAB3F5}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.1875" customWidth="1"/>
+    <col min="3" max="3" width="9.3125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="54.8125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1268,7 +1641,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1277,7 +1650,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1286,7 +1659,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1295,7 +1668,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1304,7 +1677,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1313,7 +1686,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1322,7 +1695,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1331,7 +1704,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1340,7 +1713,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1349,7 +1722,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1358,7 +1731,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1367,7 +1740,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1376,7 +1749,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1385,7 +1758,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1394,7 +1767,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1403,7 +1776,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1412,7 +1785,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1421,7 +1794,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="17">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1430,7 +1803,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1439,7 +1812,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1448,7 +1821,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1457,7 +1830,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1466,7 +1839,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1475,7 +1848,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1484,7 +1857,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1493,7 +1866,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1502,7 +1875,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1511,7 +1884,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1520,7 +1893,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1529,7 +1902,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1538,7 +1911,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="17">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1547,7 +1920,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="17">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1556,7 +1929,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="17">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1565,7 +1938,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="17">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1584,26 +1957,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FDCD6-9A00-FA49-A432-C32C2DEAB3F5}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E8823-310F-664D-AD7B-F12E337F61DA}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1875" customWidth="1"/>
+    <col min="3" max="3" width="9.3125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="54.83203125" customWidth="1"/>
+    <col min="5" max="5" width="54.8125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1626,7 +1999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1635,7 +2008,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1644,7 +2017,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1653,7 +2026,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1662,7 +2035,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1671,7 +2044,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1680,7 +2053,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1689,7 +2062,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1698,7 +2071,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1707,7 +2080,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1716,7 +2089,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1725,7 +2098,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1734,7 +2107,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1743,7 +2116,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1752,7 +2125,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1761,7 +2134,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1770,7 +2143,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1779,7 +2152,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1788,7 +2161,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="17">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1797,7 +2170,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1806,7 +2179,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1815,7 +2188,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1824,7 +2197,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1833,7 +2206,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1842,7 +2215,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1851,7 +2224,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1860,7 +2233,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1869,7 +2242,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1878,7 +2251,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1887,7 +2260,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1896,7 +2269,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1905,7 +2278,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="17">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1914,7 +2287,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="17">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1923,7 +2296,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="17">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1932,7 +2305,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="17">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1942,372 +2315,7 @@
       <c r="G36" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9E8823-310F-664D-AD7B-F12E337F61DA}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="54.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="17">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="17">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="17">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="17">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="17">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="17">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="17">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="17">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="17">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="17">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="17">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="17">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="17">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="17">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="17">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="17">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="17">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="17">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="17">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="17">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="17">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="17">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="17">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="17">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="17">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="17">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="17">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="17">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="17">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="17">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="17">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="17">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="17">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="17">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
